--- a/biology/Botanique/Féculent/Féculent.xlsx
+++ b/biology/Botanique/Féculent/Féculent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9culent</t>
+          <t>Féculent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les féculents sont des aliments d'origine végétale, constitués dans une forte proportion d'amidon ou plus généralement de glucides complexes.
 Il peut s'agir de parties de plantes non transformées (graines, fruits, tubercules, racines, tiges) ou de produits dérivés de l'industrie agroalimentaire (farine, fécule, pâtes alimentaires…).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9culent</t>
+          <t>Féculent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « féculent » est attesté depuis le XVIe siècle. Il dérive du latin faeculentus (plein de lie, de vase, de boue)[1], lui-même dérivé de faex, faecis, dépôt, sédiment, fèces[2]. Il désignait à l'origine un liquide épais, chargé d'impuretés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « féculent » est attesté depuis le XVIe siècle. Il dérive du latin faeculentus (plein de lie, de vase, de boue), lui-même dérivé de faex, faecis, dépôt, sédiment, fèces. Il désignait à l'origine un liquide épais, chargé d'impuretés.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9culent</t>
+          <t>Féculent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>L'indice glycémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les féculents ne sont pas tous des « sucres lents ». Depuis l'an 2000 environ, cette notion n'est plus utilisée par les diététiciens qui lui préfèrent celle de « glucides complexes », laquelle correspond simplement à la présence d'amidon, sans indiquer l'influence sur la glycémie. Pour refléter cet effet sur la montée de la glycémie, on utilise la notion d'indice glycémique (souvent appelé « index glycémique », qui est un anglicisme voire un latinisme)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les féculents ne sont pas tous des « sucres lents ». Depuis l'an 2000 environ, cette notion n'est plus utilisée par les diététiciens qui lui préfèrent celle de « glucides complexes », laquelle correspond simplement à la présence d'amidon, sans indiquer l'influence sur la glycémie. Pour refléter cet effet sur la montée de la glycémie, on utilise la notion d'indice glycémique (souvent appelé « index glycémique », qui est un anglicisme voire un latinisme).
 Il existe deux formes d'amidon : l'amylose et l'amylopectine.
 L'amylopectine est une forme ramifiée d'amidon, la plus rapide à digérer, et correspondant plutôt à des aliments à indice glycémique élevé.
 L'amylose est un amidon linéaire, libérant plus lentement le glucose dans le sang, et correspondant plutôt à des aliments à indice glycémique modéré.
-Les travaux sur l'indice glycémique ont commencé dans les années 1980[4].
-Cette mesure est également modulée par la notion de charge glycémique, plus efficace pour guider le consommateur[5].
+Les travaux sur l'indice glycémique ont commencé dans les années 1980.
+Cette mesure est également modulée par la notion de charge glycémique, plus efficace pour guider le consommateur.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9culent</t>
+          <t>Féculent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Céréales (graines)
-Avoine
+          <t>Céréales (graines)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Avoine
 Blé
 Épeautre
 Blé de Khorasan
@@ -593,36 +614,281 @@
 Millet commun
 Orge
 Riz
-Seigle
-Pseudo-céréale
-Sarrasin
+Seigle</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pseudo-céréale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sarrasin
 Quinoa
-Amarante
-Fruits
-Banane (la teneur en amidon non transformé diminue avec la maturité, mais une banane mûre en contient toujours beaucoup plus que les autres fruits[6])
+Amarante</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Banane (la teneur en amidon non transformé diminue avec la maturité, mais une banane mûre en contient toujours beaucoup plus que les autres fruits)
 Châtaigne
 Potimarron
-Fruit de l'arbre à pain[7]
-Légumineuses
-Fèves sèches
+Fruit de l'arbre à pain</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Légumineuses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fèves sèches
 Haricots secs
 Lentille cultivée
 Pois chiche
 Pois secs
-Graine de soja
-Organes souterrains
-Tubercules
-Igname
+Graine de soja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Organes souterrains</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tubercules</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Igname
 Patate douce
 Pomme de terre
-Topinambour[8]
-Racines
-Manioc
-Panais
-Tronc
-Sagou (issu du sagoutier)
-Produits finis
-De nombreux produits finis, industriels ou artisanaux, sont composés en bonne partie de féculents, tels que par exemple les pâtes, le pain, les frites, les chips, etc.
+Topinambour</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Organes souterrains</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Racines</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Manioc
+Panais</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tronc</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sagou (issu du sagoutier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Féculent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9culent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples de féculents</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Produits finis</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux produits finis, industriels ou artisanaux, sont composés en bonne partie de féculents, tels que par exemple les pâtes, le pain, les frites, les chips, etc.
 </t>
         </is>
       </c>
